--- a/TP_DATA_PROG/I.a.Paramlink/lod_results_rec2.xlsx
+++ b/TP_DATA_PROG/I.a.Paramlink/lod_results_rec2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\OneDrive\Desktop\Uni\NGS\Project\TP_DATA_PROG\TP_DATA_PROG\I.a.Paramlink\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\OneDrive\Desktop\Uni\NGS\Project\TP_DATA_PROG\I.a.Paramlink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FF56A53-84F3-4F07-AD55-A7994145C9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7726BFD-BA7C-4ED7-8086-A679E26C0E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14933FE5-5169-4023-B45A-97EC27E4E925}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>CHR</t>
   </si>
@@ -72,12 +72,15 @@
   <si>
     <t>M13</t>
   </si>
+  <si>
+    <t>θ\LOD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +215,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+      <charset val="222"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -394,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -509,6 +519,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -554,8 +575,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -933,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E9F701-3EBD-4506-9F52-70D14FE8C6E5}">
   <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,45 +1004,6 @@
       <c r="N1">
         <v>0.5</v>
       </c>
-      <c r="Q1">
-        <v>1</v>
-      </c>
-      <c r="R1">
-        <v>2</v>
-      </c>
-      <c r="S1">
-        <v>3</v>
-      </c>
-      <c r="T1">
-        <v>4</v>
-      </c>
-      <c r="U1">
-        <v>5</v>
-      </c>
-      <c r="V1">
-        <v>6</v>
-      </c>
-      <c r="W1">
-        <v>7</v>
-      </c>
-      <c r="X1">
-        <v>8</v>
-      </c>
-      <c r="Y1">
-        <v>9</v>
-      </c>
-      <c r="Z1">
-        <v>10</v>
-      </c>
-      <c r="AA1">
-        <v>11</v>
-      </c>
-      <c r="AB1">
-        <v>12</v>
-      </c>
-      <c r="AC1">
-        <v>13</v>
-      </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -1062,50 +1048,8 @@
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="P2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1148,50 +1092,50 @@
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AB3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1234,50 +1178,50 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="P4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>3</v>
-      </c>
-      <c r="T4">
-        <v>4</v>
-      </c>
-      <c r="U4">
-        <v>5</v>
-      </c>
-      <c r="V4">
-        <v>6</v>
-      </c>
-      <c r="W4">
-        <v>7</v>
-      </c>
-      <c r="X4">
-        <v>8</v>
-      </c>
-      <c r="Y4">
-        <v>9</v>
-      </c>
-      <c r="Z4">
-        <v>10</v>
-      </c>
-      <c r="AA4">
-        <v>11</v>
-      </c>
-      <c r="AB4">
-        <v>12</v>
-      </c>
-      <c r="AC4">
-        <v>13</v>
+      <c r="P4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.308427569100374</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1.1001247620654899E-2</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0.839488682092423</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.31457136036821998</v>
+      </c>
+      <c r="V4" s="1">
+        <v>8.2445360845468905E-3</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0.90573471217824397</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0.51940371172726396</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1.4082977724533401</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0.48813218542049702</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>1.14892405018878E-2</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>9.7370131015736702E-2</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1.30917053750196</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1320,50 +1264,50 @@
       <c r="N5">
         <v>0</v>
       </c>
-      <c r="P5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q5">
-        <v>0.308427569100374</v>
-      </c>
-      <c r="R5">
-        <v>1.1001247620654899E-2</v>
-      </c>
-      <c r="S5">
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>-11.527368859761699</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-20.3452284282804</v>
+      </c>
+      <c r="S5" s="1">
         <v>0.839488682092423</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0.31457136036821998</v>
-      </c>
-      <c r="V5">
-        <v>8.2445360845468905E-3</v>
-      </c>
-      <c r="W5">
-        <v>0.90573471217824397</v>
-      </c>
-      <c r="X5">
-        <v>0.51940371172726396</v>
-      </c>
-      <c r="Y5">
+      <c r="T5" s="1">
+        <v>-20.801691894426199</v>
+      </c>
+      <c r="U5" s="1">
+        <v>-11.4691832023478</v>
+      </c>
+      <c r="V5" s="1">
+        <v>-16.242907272397002</v>
+      </c>
+      <c r="W5" s="1">
+        <v>-6.4831987176180501</v>
+      </c>
+      <c r="X5" s="1">
+        <v>-3.08997243531668</v>
+      </c>
+      <c r="Y5" s="1">
         <v>1.4082977724533401</v>
       </c>
-      <c r="Z5">
-        <v>0.48813218542049702</v>
-      </c>
-      <c r="AA5">
-        <v>1.14892405018878E-2</v>
-      </c>
-      <c r="AB5">
-        <v>9.7370131015736702E-2</v>
-      </c>
-      <c r="AC5">
-        <v>1.30917053750196</v>
+      <c r="Z5" s="1">
+        <v>-14.5117812032379</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>-16.1314860207411</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>-8.40398595277399</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>-3.2748963991387399</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1406,50 +1350,50 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>-11.527368859761699</v>
-      </c>
-      <c r="R6">
-        <v>-20.3452284282804</v>
-      </c>
-      <c r="S6">
-        <v>0.839488682092423</v>
-      </c>
-      <c r="T6">
-        <v>-20.801691894426199</v>
-      </c>
-      <c r="U6">
-        <v>-11.4691832023478</v>
-      </c>
-      <c r="V6">
-        <v>-16.242907272397002</v>
-      </c>
-      <c r="W6">
-        <v>-6.4831987176180501</v>
-      </c>
-      <c r="X6">
-        <v>-3.08997243531668</v>
-      </c>
-      <c r="Y6">
-        <v>1.4082977724533401</v>
-      </c>
-      <c r="Z6">
-        <v>-14.5117812032379</v>
-      </c>
-      <c r="AA6">
-        <v>-16.1314860207411</v>
-      </c>
-      <c r="AB6">
-        <v>-8.40398595277399</v>
-      </c>
-      <c r="AC6">
-        <v>-3.2748963991387399</v>
+      <c r="P6" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>-0.75934626003670802</v>
+      </c>
+      <c r="R6" s="1">
+        <v>-2.4855781867685902</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.73606196462098705</v>
+      </c>
+      <c r="T6" s="1">
+        <v>-2.8803607418079298</v>
+      </c>
+      <c r="U6" s="1">
+        <v>-0.62991871812248201</v>
+      </c>
+      <c r="V6" s="1">
+        <v>-2.0398638679526302</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0.60796703499963201</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0.41495572598643099</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1.2504794456336199</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>-0.61849341067460295</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>-1.95384579095749</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>-0.92118821305461995</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>1.2231331418313101</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1492,50 +1436,50 @@
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="P7">
-        <v>0.05</v>
-      </c>
-      <c r="Q7">
-        <v>-0.75934626003670802</v>
-      </c>
-      <c r="R7">
-        <v>-2.4855781867685902</v>
-      </c>
-      <c r="S7">
-        <v>0.73606196462098705</v>
-      </c>
-      <c r="T7">
-        <v>-2.8803607418079298</v>
-      </c>
-      <c r="U7">
-        <v>-0.62991871812248201</v>
-      </c>
-      <c r="V7">
-        <v>-2.0398638679526302</v>
-      </c>
-      <c r="W7">
-        <v>0.60796703499963201</v>
-      </c>
-      <c r="X7">
-        <v>0.41495572598643099</v>
-      </c>
-      <c r="Y7">
-        <v>1.2504794456336199</v>
-      </c>
-      <c r="Z7">
-        <v>-0.61849341067460295</v>
-      </c>
-      <c r="AA7">
-        <v>-1.95384579095749</v>
-      </c>
-      <c r="AB7">
-        <v>-0.92118821305461995</v>
-      </c>
-      <c r="AC7">
-        <v>1.2231331418313101</v>
+      <c r="P7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>-6.9254569740124297E-2</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-1.2159531440884199</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0.63274285791319995</v>
+      </c>
+      <c r="T7" s="1">
+        <v>-1.54556868417308</v>
+      </c>
+      <c r="U7" s="1">
+        <v>-2.0376241567845498E-3</v>
+      </c>
+      <c r="V7" s="1">
+        <v>-1.0119720082536099</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0.88788212128972099</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0.51940371172726396</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>1.0764078256182199</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0.15368471353535501</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>-0.94676080332139601</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>-0.34356800026358802</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>1.30917053750196</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1578,50 +1522,50 @@
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="P8">
-        <v>0.1</v>
-      </c>
-      <c r="Q8">
-        <v>-6.9254569740124297E-2</v>
-      </c>
-      <c r="R8">
-        <v>-1.2159531440884199</v>
-      </c>
-      <c r="S8">
-        <v>0.63274285791319995</v>
-      </c>
-      <c r="T8">
-        <v>-1.54556868417308</v>
-      </c>
-      <c r="U8">
-        <v>-2.0376241567845498E-3</v>
-      </c>
-      <c r="V8">
-        <v>-1.0119720082536099</v>
-      </c>
-      <c r="W8">
-        <v>0.88788212128972099</v>
-      </c>
-      <c r="X8">
-        <v>0.51940371172726396</v>
-      </c>
-      <c r="Y8">
-        <v>1.0764078256182199</v>
-      </c>
-      <c r="Z8">
-        <v>0.15368471353535501</v>
-      </c>
-      <c r="AA8">
-        <v>-0.94676080332139601</v>
-      </c>
-      <c r="AB8">
-        <v>-0.34356800026358802</v>
-      </c>
-      <c r="AC8">
-        <v>1.30917053750196</v>
+      <c r="P8" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.20838992489768801</v>
+      </c>
+      <c r="R8" s="1">
+        <v>-0.610150677399389</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0.528933367648037</v>
+      </c>
+      <c r="T8" s="1">
+        <v>-0.87518337863804196</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0.23762910702988899</v>
+      </c>
+      <c r="V8" s="1">
+        <v>-0.51617904855653796</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0.90573471217824397</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0.49901400679291902</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0.89352624450350504</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0.42298307643743299</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>-0.46823269088049801</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>-7.6381286943558294E-2</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>1.23310052114427</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1664,50 +1608,50 @@
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="P9">
-        <v>0.15</v>
-      </c>
-      <c r="Q9">
-        <v>0.20838992489768801</v>
-      </c>
-      <c r="R9">
-        <v>-0.610150677399389</v>
-      </c>
-      <c r="S9">
-        <v>0.528933367648037</v>
-      </c>
-      <c r="T9">
-        <v>-0.87518337863804196</v>
-      </c>
-      <c r="U9">
-        <v>0.23762910702988899</v>
-      </c>
-      <c r="V9">
-        <v>-0.51617904855653796</v>
-      </c>
-      <c r="W9">
-        <v>0.90573471217824397</v>
-      </c>
-      <c r="X9">
-        <v>0.49901400679291902</v>
-      </c>
-      <c r="Y9">
-        <v>0.89352624450350504</v>
-      </c>
-      <c r="Z9">
-        <v>0.42298307643743299</v>
-      </c>
-      <c r="AA9">
-        <v>-0.46823269088049801</v>
-      </c>
-      <c r="AB9">
-        <v>-7.6381286943558294E-2</v>
-      </c>
-      <c r="AC9">
-        <v>1.23310052114427</v>
+      <c r="P9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.30767904178993899</v>
+      </c>
+      <c r="R9" s="1">
+        <v>-0.28260300654194698</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0.42477526358052797</v>
+      </c>
+      <c r="T9" s="1">
+        <v>-0.48594505738135801</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0.31457136036821998</v>
+      </c>
+      <c r="V9" s="1">
+        <v>-0.24459183176152499</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0.81319706706652495</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0.43009748172197199</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0.70860080678306803</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0.48813218542049702</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>-0.210776918998093</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>5.0381027392347698E-2</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>1.0793259686660801</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1750,50 +1694,50 @@
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="P10">
-        <v>0.2</v>
-      </c>
-      <c r="Q10">
-        <v>0.30767904178993899</v>
-      </c>
-      <c r="R10">
-        <v>-0.28260300654194698</v>
-      </c>
-      <c r="S10">
-        <v>0.42477526358052797</v>
-      </c>
-      <c r="T10">
-        <v>-0.48594505738135801</v>
-      </c>
-      <c r="U10">
-        <v>0.31457136036821998</v>
-      </c>
-      <c r="V10">
-        <v>-0.24459183176152499</v>
-      </c>
-      <c r="W10">
-        <v>0.81319706706652495</v>
-      </c>
-      <c r="X10">
-        <v>0.43009748172197199</v>
-      </c>
-      <c r="Y10">
-        <v>0.70860080678306803</v>
-      </c>
-      <c r="Z10">
-        <v>0.48813218542049702</v>
-      </c>
-      <c r="AA10">
-        <v>-0.210776918998093</v>
-      </c>
-      <c r="AB10">
-        <v>5.0381027392347698E-2</v>
-      </c>
-      <c r="AC10">
-        <v>1.0793259686660801</v>
+      <c r="P10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.308427569100374</v>
+      </c>
+      <c r="R10" s="1">
+        <v>-0.106777794886042</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0.32187068173592998</v>
+      </c>
+      <c r="T10" s="1">
+        <v>-0.25336634821036302</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0.30368790111573701</v>
+      </c>
+      <c r="V10" s="1">
+        <v>-9.6328689295077694E-2</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0.662824845091052</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0.33912492234615899</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0.52855934777463198</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0.44714190267701798</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>-7.3788591961800903E-2</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>9.7370131015736702E-2</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0.88011682153383197</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1836,50 +1780,50 @@
       <c r="N11">
         <v>0</v>
       </c>
-      <c r="P11">
-        <v>0.25</v>
-      </c>
-      <c r="Q11">
-        <v>0.308427569100374</v>
-      </c>
-      <c r="R11">
-        <v>-0.106777794886042</v>
-      </c>
-      <c r="S11">
-        <v>0.32187068173592998</v>
-      </c>
-      <c r="T11">
-        <v>-0.25336634821036302</v>
-      </c>
-      <c r="U11">
-        <v>0.30368790111573701</v>
-      </c>
-      <c r="V11">
-        <v>-9.6328689295077694E-2</v>
-      </c>
-      <c r="W11">
-        <v>0.662824845091052</v>
-      </c>
-      <c r="X11">
-        <v>0.33912492234615899</v>
-      </c>
-      <c r="Y11">
-        <v>0.52855934777463198</v>
-      </c>
-      <c r="Z11">
-        <v>0.44714190267701798</v>
-      </c>
-      <c r="AA11">
-        <v>-7.3788591961800903E-2</v>
-      </c>
-      <c r="AB11">
-        <v>9.7370131015736702E-2</v>
-      </c>
-      <c r="AC11">
-        <v>0.88011682153383197</v>
+      <c r="P11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.25254134530517502</v>
+      </c>
+      <c r="R11" s="1">
+        <v>-2.18775278294174E-2</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0.22359886882635699</v>
+      </c>
+      <c r="T11" s="1">
+        <v>-0.118643370026618</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0.24362419858682899</v>
+      </c>
+      <c r="V11" s="1">
+        <v>-2.2962559030318599E-2</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0.48487557313860902</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0.24107363340364399</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0.36107730432517798</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>0.349382492706937</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>-9.0984511051459497E-3</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>9.6886124739768306E-2</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0.655872867703579</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1922,50 +1866,50 @@
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="P12">
-        <v>0.3</v>
-      </c>
-      <c r="Q12">
-        <v>0.25254134530517502</v>
-      </c>
-      <c r="R12">
-        <v>-2.18775278294174E-2</v>
-      </c>
-      <c r="S12">
-        <v>0.22359886882635699</v>
-      </c>
-      <c r="T12">
-        <v>-0.118643370026618</v>
-      </c>
-      <c r="U12">
-        <v>0.24362419858682899</v>
-      </c>
-      <c r="V12">
-        <v>-2.2962559030318599E-2</v>
-      </c>
-      <c r="W12">
-        <v>0.48487557313860902</v>
-      </c>
-      <c r="X12">
-        <v>0.24107363340364399</v>
-      </c>
-      <c r="Y12">
-        <v>0.36107730432517798</v>
-      </c>
-      <c r="Z12">
-        <v>0.349382492706937</v>
-      </c>
-      <c r="AA12">
-        <v>-9.0984511051459497E-3</v>
-      </c>
-      <c r="AB12">
-        <v>9.6886124739768306E-2</v>
-      </c>
-      <c r="AC12">
-        <v>0.655872867703579</v>
+      <c r="P12" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>8.5466373003981702E-2</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1.1001247620654899E-2</v>
+      </c>
+      <c r="S12" s="1">
+        <v>6.36805945927819E-2</v>
+      </c>
+      <c r="T12" s="1">
+        <v>-1.420948603905E-2</v>
+      </c>
+      <c r="U12" s="1">
+        <v>8.0598219150189707E-2</v>
+      </c>
+      <c r="V12" s="1">
+        <v>8.2445360845468905E-3</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0.147264826202303</v>
+      </c>
+      <c r="X12" s="1">
+        <v>7.0054238805511204E-2</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>9.9886345631730905E-2</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0.11342724949369699</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>1.14892405018878E-2</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>3.7314071001077302E-2</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0.21499098882621601</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2008,47 +1952,47 @@
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="P13">
-        <v>0.4</v>
-      </c>
-      <c r="Q13">
-        <v>8.5466373003981702E-2</v>
-      </c>
-      <c r="R13">
-        <v>1.1001247620654899E-2</v>
-      </c>
-      <c r="S13">
-        <v>6.36805945927819E-2</v>
-      </c>
-      <c r="T13">
-        <v>-1.420948603905E-2</v>
-      </c>
-      <c r="U13">
-        <v>8.0598219150189707E-2</v>
-      </c>
-      <c r="V13">
-        <v>8.2445360845468905E-3</v>
-      </c>
-      <c r="W13">
-        <v>0.147264826202303</v>
-      </c>
-      <c r="X13">
-        <v>7.0054238805511204E-2</v>
-      </c>
-      <c r="Y13">
-        <v>9.9886345631730905E-2</v>
-      </c>
-      <c r="Z13">
-        <v>0.11342724949369699</v>
-      </c>
-      <c r="AA13">
-        <v>1.14892405018878E-2</v>
-      </c>
-      <c r="AB13">
-        <v>3.7314071001077302E-2</v>
-      </c>
-      <c r="AC13">
-        <v>0.21499098882621601</v>
+      <c r="P13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
@@ -2094,51 +2038,9 @@
       <c r="N14">
         <v>0</v>
       </c>
-      <c r="P14">
-        <v>0.5</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q6:AC14">
+  <conditionalFormatting sqref="Q5:AC13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
